--- a/Adicional Noturno Professores.xlsx
+++ b/Adicional Noturno Professores.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao.misturini\Desktop\Gerador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao.misturini\Documents\GitHub\Gerador-Ad-Noturno-SENAC-FL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C26"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,19 +589,19 @@
         <v>56.64</v>
       </c>
       <c r="E2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" s="8">
         <f>E2/(24*60)</f>
-        <v>6.9444444444444448E-2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
         <f>(HOUR(F2)*100+MINUTE(F2))</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <f>(G2*60)/100</f>
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
